--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna3-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Epha5</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,51 +531,51 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.22756</v>
+        <v>0.1806205</v>
       </c>
       <c r="H2">
-        <v>0.45512</v>
+        <v>0.361241</v>
       </c>
       <c r="I2">
-        <v>0.8582128485531142</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J2">
-        <v>0.8013988205815389</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.331827</v>
+        <v>0.006466</v>
       </c>
       <c r="N2">
-        <v>0.663654</v>
+        <v>0.012932</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008493427970384656</v>
       </c>
       <c r="Q2">
-        <v>0.07551055211999999</v>
+        <v>0.001167892153</v>
       </c>
       <c r="R2">
-        <v>0.30204220848</v>
+        <v>0.004671568612</v>
       </c>
       <c r="S2">
-        <v>0.8582128485531142</v>
+        <v>0.00618704547754243</v>
       </c>
       <c r="T2">
-        <v>0.8013988205815389</v>
+        <v>0.00618704547754243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,25 +584,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.03759566666666666</v>
+        <v>0.1806205</v>
       </c>
       <c r="H3">
-        <v>0.112787</v>
+        <v>0.361241</v>
       </c>
       <c r="I3">
-        <v>0.1417871514468859</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="J3">
-        <v>0.1986011794184611</v>
+        <v>0.7284509268949775</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +611,152 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.331827</v>
+        <v>0.7548284999999999</v>
       </c>
       <c r="N3">
-        <v>0.663654</v>
+        <v>1.509657</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9915065720296153</v>
       </c>
       <c r="Q3">
-        <v>0.012475257283</v>
+        <v>0.13633750108425</v>
       </c>
       <c r="R3">
-        <v>0.07485154369799998</v>
+        <v>0.5453500043369999</v>
       </c>
       <c r="S3">
-        <v>0.1417871514468859</v>
+        <v>0.722263881417435</v>
       </c>
       <c r="T3">
-        <v>0.1986011794184611</v>
+        <v>0.722263881417435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.067331</v>
+      </c>
+      <c r="H4">
+        <v>0.134662</v>
+      </c>
+      <c r="I4">
+        <v>0.2715490731050226</v>
+      </c>
+      <c r="J4">
+        <v>0.2715490731050226</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <v>0.006466</v>
+      </c>
+      <c r="N4">
+        <v>0.012932</v>
+      </c>
+      <c r="O4">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="P4">
+        <v>0.008493427970384656</v>
+      </c>
+      <c r="Q4">
+        <v>0.0004353622460000001</v>
+      </c>
+      <c r="R4">
+        <v>0.001741448984</v>
+      </c>
+      <c r="S4">
+        <v>0.002306382492842226</v>
+      </c>
+      <c r="T4">
+        <v>0.002306382492842226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.067331</v>
+      </c>
+      <c r="H5">
+        <v>0.134662</v>
+      </c>
+      <c r="I5">
+        <v>0.2715490731050226</v>
+      </c>
+      <c r="J5">
+        <v>0.2715490731050226</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7548284999999999</v>
+      </c>
+      <c r="N5">
+        <v>1.509657</v>
+      </c>
+      <c r="O5">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="P5">
+        <v>0.9915065720296153</v>
+      </c>
+      <c r="Q5">
+        <v>0.0508233577335</v>
+      </c>
+      <c r="R5">
+        <v>0.203293430934</v>
+      </c>
+      <c r="S5">
+        <v>0.2692426906121804</v>
+      </c>
+      <c r="T5">
+        <v>0.2692426906121804</v>
       </c>
     </row>
   </sheetData>
